--- a/biology/Médecine/Kératine_alpha/Kératine_alpha.xlsx
+++ b/biology/Médecine/Kératine_alpha/Kératine_alpha.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>K%C3%A9ratine_alpha</t>
+          <t>Kératine_alpha</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La kératine α est une grande famille multigènique dont les protéines jouent un rôle structural dans l'épithélium. Elles sont présentes chez tous les vertébrés. Les kératines α recouvrent l'épiderme et forment les ongles des primates, les griffes des autres animaux, la fourrure ou les cheveux.
 Ce sont de longs segments en hélice α de 311 à 314 résidus d'acides aminés encadrés par un domaine N-terminal et un domaine C-terminal non hélicoïdaux. La structure primaire des régions en hélice α est constituée de répétitions de sept résidus (a-b-c-d-e-f-g)n, où a et d sont des résidus apolaires, ce qui favorise les interactions hydrophobes entre superhélices. Il n’y a pas de résidu de proline mais de nombreux résidus de cystéine, permettant ainsi de consolider les liaisons entre les différents protofilaments. Ces protéines sont rigides et offrent une grande résistance à l’étirement.
